--- a/data/pca/factorExposure/factorExposure_2012-06-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-06-20.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01703604233735045</v>
+        <v>-0.02204033007774462</v>
       </c>
       <c r="C2">
-        <v>0.02921204768586944</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02320191210807565</v>
+      </c>
+      <c r="D2">
+        <v>0.003130457483862942</v>
+      </c>
+      <c r="E2">
+        <v>-0.01972057185546175</v>
+      </c>
+      <c r="F2">
+        <v>0.005522837606104378</v>
+      </c>
+      <c r="G2">
+        <v>-0.009428488504566372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +757,45 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06773590892632569</v>
+        <v>-0.07719788904620029</v>
       </c>
       <c r="C4">
-        <v>0.06357520148777238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.04072723692717366</v>
+      </c>
+      <c r="D4">
+        <v>0.0695901378773027</v>
+      </c>
+      <c r="E4">
+        <v>0.001210213585167925</v>
+      </c>
+      <c r="F4">
+        <v>0.03016093514851228</v>
+      </c>
+      <c r="G4">
+        <v>0.01161864957939853</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +803,275 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.09642227261813412</v>
+        <v>-0.1165515571487813</v>
       </c>
       <c r="C6">
-        <v>0.07170841776440234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.04643788367771234</v>
+      </c>
+      <c r="D6">
+        <v>0.01177069292751417</v>
+      </c>
+      <c r="E6">
+        <v>0.002174219069528663</v>
+      </c>
+      <c r="F6">
+        <v>0.05305868182210276</v>
+      </c>
+      <c r="G6">
+        <v>-0.007011169562273713</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.04465466785302648</v>
+        <v>-0.05535211380661597</v>
       </c>
       <c r="C7">
-        <v>0.03597048196841187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.02507550548562851</v>
+      </c>
+      <c r="D7">
+        <v>0.03314873729488901</v>
+      </c>
+      <c r="E7">
+        <v>-0.02140942279773678</v>
+      </c>
+      <c r="F7">
+        <v>0.03626603423236424</v>
+      </c>
+      <c r="G7">
+        <v>0.04251945262977459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.03164532497762305</v>
+        <v>-0.03538288115852173</v>
       </c>
       <c r="C8">
-        <v>0.02794506058687781</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.0163867800564247</v>
+      </c>
+      <c r="D8">
+        <v>0.0397649543245502</v>
+      </c>
+      <c r="E8">
+        <v>-0.004504739106118041</v>
+      </c>
+      <c r="F8">
+        <v>0.04925881068791287</v>
+      </c>
+      <c r="G8">
+        <v>-0.01932335356726193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06251626770830278</v>
+        <v>-0.07225519497358224</v>
       </c>
       <c r="C9">
-        <v>0.04914572906743027</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.02888616777657238</v>
+      </c>
+      <c r="D9">
+        <v>0.06907726371351197</v>
+      </c>
+      <c r="E9">
+        <v>-0.01480616143546481</v>
+      </c>
+      <c r="F9">
+        <v>0.0384863157796063</v>
+      </c>
+      <c r="G9">
+        <v>0.005815701114832092</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02615314311335933</v>
+        <v>-0.03910058258180577</v>
       </c>
       <c r="C10">
-        <v>0.03781552466377832</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.03957374239482021</v>
+      </c>
+      <c r="D10">
+        <v>-0.184088506225165</v>
+      </c>
+      <c r="E10">
+        <v>-0.04835584109790545</v>
+      </c>
+      <c r="F10">
+        <v>0.03871851313063649</v>
+      </c>
+      <c r="G10">
+        <v>0.03858588485028908</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.06642881889300331</v>
+        <v>-0.0752230227123091</v>
       </c>
       <c r="C11">
-        <v>0.0550755655556537</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.03113524492875697</v>
+      </c>
+      <c r="D11">
+        <v>0.06897531684177698</v>
+      </c>
+      <c r="E11">
+        <v>0.01354513019945667</v>
+      </c>
+      <c r="F11">
+        <v>0.03471888764858354</v>
+      </c>
+      <c r="G11">
+        <v>0.01826375505135919</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.05113256692744499</v>
+        <v>-0.0615844816108961</v>
       </c>
       <c r="C12">
-        <v>0.05339922473636865</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03520898412977826</v>
+      </c>
+      <c r="D12">
+        <v>0.05179312223017516</v>
+      </c>
+      <c r="E12">
+        <v>-0.008052889315898329</v>
+      </c>
+      <c r="F12">
+        <v>0.02924841256242136</v>
+      </c>
+      <c r="G12">
+        <v>0.01957395509226536</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.05699861066973681</v>
+        <v>-0.06345427662280453</v>
       </c>
       <c r="C13">
-        <v>0.05557229630888803</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.03289314209303895</v>
+      </c>
+      <c r="D13">
+        <v>0.05022790942737423</v>
+      </c>
+      <c r="E13">
+        <v>-0.003442793191640242</v>
+      </c>
+      <c r="F13">
+        <v>0.0178697147134311</v>
+      </c>
+      <c r="G13">
+        <v>0.00374855583527241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.03149897129860777</v>
+        <v>-0.0375165436298246</v>
       </c>
       <c r="C14">
-        <v>0.02741450654235114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.01907845270727165</v>
+      </c>
+      <c r="D14">
+        <v>0.01038487967335093</v>
+      </c>
+      <c r="E14">
+        <v>-0.00796857650672218</v>
+      </c>
+      <c r="F14">
+        <v>0.01320702684948704</v>
+      </c>
+      <c r="G14">
+        <v>-0.002769185457328367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03891709723661423</v>
+        <v>-0.04053174707924261</v>
       </c>
       <c r="C15">
-        <v>0.01484129617782019</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.003889713963435671</v>
+      </c>
+      <c r="D15">
+        <v>0.01707143311330769</v>
+      </c>
+      <c r="E15">
+        <v>-0.03658765172774626</v>
+      </c>
+      <c r="F15">
+        <v>0.00269047292333479</v>
+      </c>
+      <c r="G15">
+        <v>-0.02191817657611914</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05599984404508623</v>
+        <v>-0.0625360623985448</v>
       </c>
       <c r="C16">
-        <v>0.04687981956566693</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02756140159758791</v>
+      </c>
+      <c r="D16">
+        <v>0.06070218267209886</v>
+      </c>
+      <c r="E16">
+        <v>0.003149558788945005</v>
+      </c>
+      <c r="F16">
+        <v>0.03049090788107305</v>
+      </c>
+      <c r="G16">
+        <v>0.007101489552518654</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1079,22 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1102,22 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.06114240748792242</v>
+        <v>-0.06190804453543656</v>
       </c>
       <c r="C20">
-        <v>0.03864841838930875</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.01722875156906142</v>
+      </c>
+      <c r="D20">
+        <v>0.0488055761199675</v>
+      </c>
+      <c r="E20">
+        <v>-0.0149528242675737</v>
+      </c>
+      <c r="F20">
+        <v>0.02830954051075049</v>
+      </c>
+      <c r="G20">
+        <v>0.01999866254052678</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.02612653146629406</v>
+        <v>-0.02382848432642704</v>
       </c>
       <c r="C21">
-        <v>0.001865050757924098</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.009705714150973854</v>
+      </c>
+      <c r="D21">
+        <v>0.03002864430771105</v>
+      </c>
+      <c r="E21">
+        <v>-0.09150552212024929</v>
+      </c>
+      <c r="F21">
+        <v>0.004482137250620714</v>
+      </c>
+      <c r="G21">
+        <v>-0.008064316461351443</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.06630054635148805</v>
+        <v>-0.06273643348660569</v>
       </c>
       <c r="C22">
-        <v>0.07544318458201424</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.04367255405689292</v>
+      </c>
+      <c r="D22">
+        <v>0.1040326747503141</v>
+      </c>
+      <c r="E22">
+        <v>-0.6180446476389805</v>
+      </c>
+      <c r="F22">
+        <v>-0.1070679827565871</v>
+      </c>
+      <c r="G22">
+        <v>0.02665406153008531</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.06694540997090802</v>
+        <v>-0.0633945893440087</v>
       </c>
       <c r="C23">
-        <v>0.07507361587470034</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.04317804158527204</v>
+      </c>
+      <c r="D23">
+        <v>0.1049377813229605</v>
+      </c>
+      <c r="E23">
+        <v>-0.6172907683367157</v>
+      </c>
+      <c r="F23">
+        <v>-0.1067083025202743</v>
+      </c>
+      <c r="G23">
+        <v>0.02474646542406184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06365203475861886</v>
+        <v>-0.07421240820792357</v>
       </c>
       <c r="C24">
-        <v>0.05468968054718461</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.032941325645904</v>
+      </c>
+      <c r="D24">
+        <v>0.06653286483398474</v>
+      </c>
+      <c r="E24">
+        <v>-0.003345661039979163</v>
+      </c>
+      <c r="F24">
+        <v>0.04226582466865073</v>
+      </c>
+      <c r="G24">
+        <v>0.008666399595409669</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.06312841560980019</v>
+        <v>-0.07233192720549185</v>
       </c>
       <c r="C25">
-        <v>0.05992405374010536</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03799834532143236</v>
+      </c>
+      <c r="D25">
+        <v>0.06593609960361929</v>
+      </c>
+      <c r="E25">
+        <v>-0.00522290620524477</v>
+      </c>
+      <c r="F25">
+        <v>0.03843055468883585</v>
+      </c>
+      <c r="G25">
+        <v>-0.001339520720619288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.0377278494527111</v>
+        <v>-0.04043074694003139</v>
       </c>
       <c r="C26">
-        <v>0.01591106800199587</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.005680042253726898</v>
+      </c>
+      <c r="D26">
+        <v>0.02268357077150349</v>
+      </c>
+      <c r="E26">
+        <v>-0.03525740850800704</v>
+      </c>
+      <c r="F26">
+        <v>0.02146633085162621</v>
+      </c>
+      <c r="G26">
+        <v>0.01660731829777856</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1309,229 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.04730965062769206</v>
+        <v>-0.07304155422152223</v>
       </c>
       <c r="C28">
-        <v>0.07100150954009549</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.07435271403582536</v>
+      </c>
+      <c r="D28">
+        <v>-0.3229630644751972</v>
+      </c>
+      <c r="E28">
+        <v>-0.03934033233040531</v>
+      </c>
+      <c r="F28">
+        <v>0.05214720219687406</v>
+      </c>
+      <c r="G28">
+        <v>-0.02506996664437445</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.03461677328828948</v>
+        <v>-0.04328421200857953</v>
       </c>
       <c r="C29">
-        <v>0.03206981939460127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.02428602089663801</v>
+      </c>
+      <c r="D29">
+        <v>0.01029948196206056</v>
+      </c>
+      <c r="E29">
+        <v>-0.0348809668068475</v>
+      </c>
+      <c r="F29">
+        <v>0.01300539081817246</v>
+      </c>
+      <c r="G29">
+        <v>0.01466425402088876</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.1149450481100001</v>
+        <v>-0.13118828199326</v>
       </c>
       <c r="C30">
-        <v>0.1012634734013281</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.06269115681227364</v>
+      </c>
+      <c r="D30">
+        <v>0.09821441555178831</v>
+      </c>
+      <c r="E30">
+        <v>-0.03770807092322051</v>
+      </c>
+      <c r="F30">
+        <v>0.02711666384006988</v>
+      </c>
+      <c r="G30">
+        <v>-0.005579316570576917</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.03726115412805584</v>
+        <v>-0.04318134707870487</v>
       </c>
       <c r="C31">
-        <v>0.02489509098669565</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01439595128914242</v>
+      </c>
+      <c r="D31">
+        <v>0.02844274626382777</v>
+      </c>
+      <c r="E31">
+        <v>-0.01941679952290892</v>
+      </c>
+      <c r="F31">
+        <v>0.01324573673271769</v>
+      </c>
+      <c r="G31">
+        <v>0.02282562330384896</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.03252745119573548</v>
+        <v>-0.03217428033759925</v>
       </c>
       <c r="C32">
-        <v>0.02533639913298577</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01399926956796812</v>
+      </c>
+      <c r="D32">
+        <v>0.01676001151225155</v>
+      </c>
+      <c r="E32">
+        <v>-0.0639179340175404</v>
+      </c>
+      <c r="F32">
+        <v>-0.002977343585466512</v>
+      </c>
+      <c r="G32">
+        <v>-0.02745758062189072</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07309705529432781</v>
+        <v>-0.08781410060796063</v>
       </c>
       <c r="C33">
-        <v>0.05538913761769768</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.03395163217059187</v>
+      </c>
+      <c r="D33">
+        <v>0.06448118226723422</v>
+      </c>
+      <c r="E33">
+        <v>-0.01092929392829601</v>
+      </c>
+      <c r="F33">
+        <v>0.006263418175851579</v>
+      </c>
+      <c r="G33">
+        <v>0.01712121493328</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04997193958167596</v>
+        <v>-0.05722172112585294</v>
       </c>
       <c r="C34">
-        <v>0.03514320210667281</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01792813549836478</v>
+      </c>
+      <c r="D34">
+        <v>0.06046035691773749</v>
+      </c>
+      <c r="E34">
+        <v>-0.001327054964930914</v>
+      </c>
+      <c r="F34">
+        <v>0.02596250109329942</v>
+      </c>
+      <c r="G34">
+        <v>0.002589072085206352</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.03623673032897445</v>
+        <v>-0.04034617935300149</v>
       </c>
       <c r="C35">
-        <v>0.01398203757643042</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.005635640949151607</v>
+      </c>
+      <c r="D35">
+        <v>0.01208642751692064</v>
+      </c>
+      <c r="E35">
+        <v>-0.02480280324956888</v>
+      </c>
+      <c r="F35">
+        <v>-0.0008876548487407311</v>
+      </c>
+      <c r="G35">
+        <v>0.01386243163143047</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01742409968008174</v>
+        <v>-0.02304999879716528</v>
       </c>
       <c r="C36">
-        <v>0.01770395396409044</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01195819504222366</v>
+      </c>
+      <c r="D36">
+        <v>0.02068873946428252</v>
+      </c>
+      <c r="E36">
+        <v>-0.03159588477923898</v>
+      </c>
+      <c r="F36">
+        <v>0.02078427969389159</v>
+      </c>
+      <c r="G36">
+        <v>0.01325952734969354</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1539,114 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03822500380470242</v>
+        <v>-0.0409983017474248</v>
       </c>
       <c r="C38">
-        <v>0.01176748606903581</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.002649441940181556</v>
+      </c>
+      <c r="D38">
+        <v>0.01077126862358531</v>
+      </c>
+      <c r="E38">
+        <v>-0.06177908727139873</v>
+      </c>
+      <c r="F38">
+        <v>-0.0181069728839182</v>
+      </c>
+      <c r="G38">
+        <v>-0.01884497490581394</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08588020228238304</v>
+        <v>-0.1008838803807478</v>
       </c>
       <c r="C39">
-        <v>0.08670676744650667</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.05558198497467549</v>
+      </c>
+      <c r="D39">
+        <v>0.08525827099889843</v>
+      </c>
+      <c r="E39">
+        <v>0.01400089151827125</v>
+      </c>
+      <c r="F39">
+        <v>0.02159085400487504</v>
+      </c>
+      <c r="G39">
+        <v>-0.02042862311292438</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.06436183037763225</v>
+        <v>-0.07235428453059801</v>
       </c>
       <c r="C40">
-        <v>0.05726226852506773</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.03503981796551658</v>
+      </c>
+      <c r="D40">
+        <v>0.01206595531148856</v>
+      </c>
+      <c r="E40">
+        <v>-0.02823705350137799</v>
+      </c>
+      <c r="F40">
+        <v>-0.04465177775141454</v>
+      </c>
+      <c r="G40">
+        <v>-0.05619371021454843</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.03842895789851335</v>
+        <v>-0.04334313253087587</v>
       </c>
       <c r="C41">
-        <v>0.01898164110380569</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.008391638408461199</v>
+      </c>
+      <c r="D41">
+        <v>0.04136840660868202</v>
+      </c>
+      <c r="E41">
+        <v>-0.006676624037456357</v>
+      </c>
+      <c r="F41">
+        <v>-0.007096219723743009</v>
+      </c>
+      <c r="G41">
+        <v>-0.009106549831818413</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1654,68 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04130568783996146</v>
+        <v>-0.05094440389864962</v>
       </c>
       <c r="C43">
-        <v>0.03873877148805738</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.0241519982933097</v>
+      </c>
+      <c r="D43">
+        <v>0.02950884708021111</v>
+      </c>
+      <c r="E43">
+        <v>-0.01510512202097812</v>
+      </c>
+      <c r="F43">
+        <v>0.01529348162434764</v>
+      </c>
+      <c r="G43">
+        <v>0.009731504762691235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.08807953239017759</v>
+        <v>-0.09219853705047391</v>
       </c>
       <c r="C44">
-        <v>0.09705552068592083</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.0607525117990014</v>
+      </c>
+      <c r="D44">
+        <v>0.05907562489446012</v>
+      </c>
+      <c r="E44">
+        <v>-0.09928436866723736</v>
+      </c>
+      <c r="F44">
+        <v>0.07550914623092761</v>
+      </c>
+      <c r="G44">
+        <v>-0.01437436461181782</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1723,160 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02678369629643529</v>
+        <v>-0.02838631320422224</v>
       </c>
       <c r="C46">
-        <v>0.01889877392352572</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.01000971854611931</v>
+      </c>
+      <c r="D46">
+        <v>0.03456574544905641</v>
+      </c>
+      <c r="E46">
+        <v>-0.01485163686069555</v>
+      </c>
+      <c r="F46">
+        <v>0.0181103245284501</v>
+      </c>
+      <c r="G46">
+        <v>-0.005736295579751142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.02699219445788561</v>
+        <v>-0.0303656197721363</v>
       </c>
       <c r="C47">
-        <v>0.02314107458795536</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.01394194915741062</v>
+      </c>
+      <c r="D47">
+        <v>0.01694469072336667</v>
+      </c>
+      <c r="E47">
+        <v>-0.04588145654339821</v>
+      </c>
+      <c r="F47">
+        <v>0.01647540531443845</v>
+      </c>
+      <c r="G47">
+        <v>0.02466057781795921</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.02699013840227442</v>
+        <v>-0.03115230595590794</v>
       </c>
       <c r="C48">
-        <v>0.02048731226108643</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.01185714060655091</v>
+      </c>
+      <c r="D48">
+        <v>0.03140839849057483</v>
+      </c>
+      <c r="E48">
+        <v>-0.0421729979392457</v>
+      </c>
+      <c r="F48">
+        <v>0.01910615206268244</v>
+      </c>
+      <c r="G48">
+        <v>0.002925754684027199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1486786073024059</v>
+        <v>-0.1762246826034143</v>
       </c>
       <c r="C49">
-        <v>0.09990992225098098</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.0575717665640127</v>
+      </c>
+      <c r="D49">
+        <v>0.01016172481202678</v>
+      </c>
+      <c r="E49">
+        <v>0.1341053584001098</v>
+      </c>
+      <c r="F49">
+        <v>0.01427745111583839</v>
+      </c>
+      <c r="G49">
+        <v>0.05708359413068885</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.03253254139417391</v>
+        <v>-0.0413207534370534</v>
       </c>
       <c r="C50">
-        <v>0.02833183059248398</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.02134215627250646</v>
+      </c>
+      <c r="D50">
+        <v>0.03798551331570797</v>
+      </c>
+      <c r="E50">
+        <v>-0.03963193851873735</v>
+      </c>
+      <c r="F50">
+        <v>0.02826145348219643</v>
+      </c>
+      <c r="G50">
+        <v>0.02263734820418132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.02381647222146656</v>
+        <v>-0.0262811016804588</v>
       </c>
       <c r="C51">
-        <v>0.01724748133470933</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.009060731937206828</v>
+      </c>
+      <c r="D51">
+        <v>0.02791575042055255</v>
+      </c>
+      <c r="E51">
+        <v>-0.01227950027190197</v>
+      </c>
+      <c r="F51">
+        <v>0.006199813598919829</v>
+      </c>
+      <c r="G51">
+        <v>-0.005118890715571211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1884,114 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1358748963154762</v>
+        <v>-0.1580456877319194</v>
       </c>
       <c r="C53">
-        <v>0.1048531363911033</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.06831262092664063</v>
+      </c>
+      <c r="D53">
+        <v>0.02318118968675498</v>
+      </c>
+      <c r="E53">
+        <v>0.04208666454537347</v>
+      </c>
+      <c r="F53">
+        <v>0.01807058903566284</v>
+      </c>
+      <c r="G53">
+        <v>-0.005294695969515293</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.05108486574059119</v>
+        <v>-0.05557142224255053</v>
       </c>
       <c r="C54">
-        <v>0.02993923324273801</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01357834967903402</v>
+      </c>
+      <c r="D54">
+        <v>0.03551312707911599</v>
+      </c>
+      <c r="E54">
+        <v>-0.04241416309825365</v>
+      </c>
+      <c r="F54">
+        <v>0.01785746137251835</v>
+      </c>
+      <c r="G54">
+        <v>0.001209075844938779</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.08996838820335587</v>
+        <v>-0.0986772473990916</v>
       </c>
       <c r="C55">
-        <v>0.0670120776270918</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.04198720228934313</v>
+      </c>
+      <c r="D55">
+        <v>0.03238424470925103</v>
+      </c>
+      <c r="E55">
+        <v>-0.004676297878377558</v>
+      </c>
+      <c r="F55">
+        <v>0.02098735775415273</v>
+      </c>
+      <c r="G55">
+        <v>-0.01025634435965975</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1332379077014579</v>
+        <v>-0.1569998708074347</v>
       </c>
       <c r="C56">
-        <v>0.1144114985063901</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.07692478884408001</v>
+      </c>
+      <c r="D56">
+        <v>0.01987247260438843</v>
+      </c>
+      <c r="E56">
+        <v>0.04288654466086862</v>
+      </c>
+      <c r="F56">
+        <v>0.04769152704095603</v>
+      </c>
+      <c r="G56">
+        <v>0.01273032721686113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1999,896 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.1119192982719584</v>
+        <v>-0.1021822033313083</v>
       </c>
       <c r="C58">
-        <v>0.03462115226957341</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.003290472021428477</v>
+      </c>
+      <c r="D58">
+        <v>0.05889473695027975</v>
+      </c>
+      <c r="E58">
+        <v>-0.1852543478848133</v>
+      </c>
+      <c r="F58">
+        <v>0.04443746124654679</v>
+      </c>
+      <c r="G58">
+        <v>0.06178833276015334</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.0997792611183763</v>
+        <v>-0.1444989333557967</v>
       </c>
       <c r="C59">
-        <v>0.08874279714281361</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.08665378788812868</v>
+      </c>
+      <c r="D59">
+        <v>-0.3516476236819573</v>
+      </c>
+      <c r="E59">
+        <v>-0.05034400127965842</v>
+      </c>
+      <c r="F59">
+        <v>-0.0193060324936251</v>
+      </c>
+      <c r="G59">
+        <v>0.02935080414057936</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.1799887866880423</v>
+        <v>-0.2159734514777122</v>
       </c>
       <c r="C60">
-        <v>0.1248184821171059</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.08127223070605404</v>
+      </c>
+      <c r="D60">
+        <v>0.01346084659602214</v>
+      </c>
+      <c r="E60">
+        <v>0.07145462817227034</v>
+      </c>
+      <c r="F60">
+        <v>0.03717878109556582</v>
+      </c>
+      <c r="G60">
+        <v>-0.0244416264712645</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.07367197566459086</v>
+        <v>-0.08521067551067719</v>
       </c>
       <c r="C61">
-        <v>0.06362789235340045</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.03957552652956987</v>
+      </c>
+      <c r="D61">
+        <v>0.06434699475788107</v>
+      </c>
+      <c r="E61">
+        <v>0.0183465277296663</v>
+      </c>
+      <c r="F61">
+        <v>0.00815269261441403</v>
+      </c>
+      <c r="G61">
+        <v>0.01928140414346908</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.112811882413632</v>
+        <v>-0.1373536035621005</v>
       </c>
       <c r="C62">
-        <v>0.08662534578054956</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.05878573979663285</v>
+      </c>
+      <c r="D62">
+        <v>0.02479303314124161</v>
+      </c>
+      <c r="E62">
+        <v>0.05649023899787911</v>
+      </c>
+      <c r="F62">
+        <v>0.0198129462402906</v>
+      </c>
+      <c r="G62">
+        <v>-0.0308572610756616</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.04934837702136952</v>
+        <v>-0.05205938195621292</v>
       </c>
       <c r="C63">
-        <v>0.03121842381539186</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01729710516116895</v>
+      </c>
+      <c r="D63">
+        <v>0.03081156443509685</v>
+      </c>
+      <c r="E63">
+        <v>-0.04909507771301781</v>
+      </c>
+      <c r="F63">
+        <v>0.01672917267881253</v>
+      </c>
+      <c r="G63">
+        <v>-0.02545433797579554</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1052604944105581</v>
+        <v>-0.1121352298496693</v>
       </c>
       <c r="C64">
-        <v>0.0522075581841831</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.02203483682955487</v>
+      </c>
+      <c r="D64">
+        <v>0.04498427145942872</v>
+      </c>
+      <c r="E64">
+        <v>-0.02761085036669224</v>
+      </c>
+      <c r="F64">
+        <v>0.05709496114474835</v>
+      </c>
+      <c r="G64">
+        <v>-0.02175206327300683</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1083866691712802</v>
+        <v>-0.1244746809191087</v>
       </c>
       <c r="C65">
-        <v>0.0704567117666102</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04402334980784291</v>
+      </c>
+      <c r="D65">
+        <v>0.01151279636899923</v>
+      </c>
+      <c r="E65">
+        <v>-0.001852389375293205</v>
+      </c>
+      <c r="F65">
+        <v>0.06288218261804099</v>
+      </c>
+      <c r="G65">
+        <v>-0.02382435714796202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1323952784847886</v>
+        <v>-0.1521945253241552</v>
       </c>
       <c r="C66">
-        <v>0.09796902885209904</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.05650836212009493</v>
+      </c>
+      <c r="D66">
+        <v>0.1188611077704687</v>
+      </c>
+      <c r="E66">
+        <v>0.05819801686354954</v>
+      </c>
+      <c r="F66">
+        <v>0.04034156479911125</v>
+      </c>
+      <c r="G66">
+        <v>-0.01711608485919031</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.06900031972858392</v>
+        <v>-0.07547123008884533</v>
       </c>
       <c r="C67">
-        <v>0.02619804775640802</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.009174102762124792</v>
+      </c>
+      <c r="D67">
+        <v>0.02390673927214236</v>
+      </c>
+      <c r="E67">
+        <v>-0.02706021051013406</v>
+      </c>
+      <c r="F67">
+        <v>-0.0003602925440426322</v>
+      </c>
+      <c r="G67">
+        <v>0.003260840418176689</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.05019958769212678</v>
+        <v>-0.06674236350566333</v>
       </c>
       <c r="C68">
-        <v>0.04745410204901164</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.04795544195350809</v>
+      </c>
+      <c r="D68">
+        <v>-0.2657734995430335</v>
+      </c>
+      <c r="E68">
+        <v>-0.04923386114847005</v>
+      </c>
+      <c r="F68">
+        <v>0.01277963894426443</v>
+      </c>
+      <c r="G68">
+        <v>0.008335843793439813</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.04890006449741565</v>
+        <v>-0.05107337690501712</v>
       </c>
       <c r="C69">
-        <v>0.02955887936789646</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.01208744703948847</v>
+      </c>
+      <c r="D69">
+        <v>0.03531440747775329</v>
+      </c>
+      <c r="E69">
+        <v>-0.01669413763169342</v>
+      </c>
+      <c r="F69">
+        <v>0.00176899805171878</v>
+      </c>
+      <c r="G69">
+        <v>0.002685814124164021</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.00474248454592364</v>
+        <v>-0.01525935377334041</v>
       </c>
       <c r="C70">
-        <v>-0.002217453622900831</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.0007632090017190475</v>
+      </c>
+      <c r="D70">
+        <v>-0.005511730767850514</v>
+      </c>
+      <c r="E70">
+        <v>0.0248424637701537</v>
+      </c>
+      <c r="F70">
+        <v>0.01089174217385995</v>
+      </c>
+      <c r="G70">
+        <v>0.01786579708003899</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.05261453597121944</v>
+        <v>-0.0700957129441995</v>
       </c>
       <c r="C71">
-        <v>0.0472457548413842</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.04744833594643603</v>
+      </c>
+      <c r="D71">
+        <v>-0.2988094004470399</v>
+      </c>
+      <c r="E71">
+        <v>-0.04504503054185238</v>
+      </c>
+      <c r="F71">
+        <v>0.03529482226463809</v>
+      </c>
+      <c r="G71">
+        <v>0.004374217689299689</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1300374085675081</v>
+        <v>-0.1547491648600661</v>
       </c>
       <c r="C72">
-        <v>0.08062615890571664</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.04848300432089245</v>
+      </c>
+      <c r="D72">
+        <v>0.009167790789548217</v>
+      </c>
+      <c r="E72">
+        <v>0.08606196077118802</v>
+      </c>
+      <c r="F72">
+        <v>-0.161052500771636</v>
+      </c>
+      <c r="G72">
+        <v>-0.1234929977025423</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.2415052236642489</v>
+        <v>-0.2729049760089184</v>
       </c>
       <c r="C73">
-        <v>0.1499229188658723</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.08343520698487422</v>
+      </c>
+      <c r="D73">
+        <v>0.06746085027452917</v>
+      </c>
+      <c r="E73">
+        <v>0.1881470508840508</v>
+      </c>
+      <c r="F73">
+        <v>0.05648927736489925</v>
+      </c>
+      <c r="G73">
+        <v>0.2113805642181629</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.07189953783920668</v>
+        <v>-0.0889472920904831</v>
       </c>
       <c r="C74">
-        <v>0.08306175722269103</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.06246433109916896</v>
+      </c>
+      <c r="D74">
+        <v>0.03465124266785252</v>
+      </c>
+      <c r="E74">
+        <v>0.006941416847212219</v>
+      </c>
+      <c r="F74">
+        <v>-0.005504064701640744</v>
+      </c>
+      <c r="G74">
+        <v>0.02196699649269089</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.09170473467326079</v>
+        <v>-0.104096507973973</v>
       </c>
       <c r="C75">
-        <v>0.06928573203055778</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.03888358212988529</v>
+      </c>
+      <c r="D75">
+        <v>0.01678100217995019</v>
+      </c>
+      <c r="E75">
+        <v>0.0005744571690556188</v>
+      </c>
+      <c r="F75">
+        <v>0.06032587342523885</v>
+      </c>
+      <c r="G75">
+        <v>0.01271206259230992</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1140874416868888</v>
+        <v>-0.1319832262036213</v>
       </c>
       <c r="C76">
-        <v>0.1043337516880254</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.06925449994769556</v>
+      </c>
+      <c r="D76">
+        <v>0.05966906874111171</v>
+      </c>
+      <c r="E76">
+        <v>-0.001376303338720425</v>
+      </c>
+      <c r="F76">
+        <v>0.0648921922276966</v>
+      </c>
+      <c r="G76">
+        <v>-0.01239879192013906</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.1111472518849503</v>
+        <v>-0.1166329678439548</v>
       </c>
       <c r="C77">
-        <v>0.06224950785785598</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.02493989168863527</v>
+      </c>
+      <c r="D77">
+        <v>0.01931309027325345</v>
+      </c>
+      <c r="E77">
+        <v>0.01153963047737008</v>
+      </c>
+      <c r="F77">
+        <v>0.2597836269492594</v>
+      </c>
+      <c r="G77">
+        <v>-0.8689042665478327</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.08344491032631494</v>
+        <v>-0.1054112398793831</v>
       </c>
       <c r="C78">
-        <v>0.05120709998088124</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03147329287360008</v>
+      </c>
+      <c r="D78">
+        <v>0.0706122266600898</v>
+      </c>
+      <c r="E78">
+        <v>-0.06189959619365572</v>
+      </c>
+      <c r="F78">
+        <v>0.005301009624736171</v>
+      </c>
+      <c r="G78">
+        <v>-0.02238358010210371</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.131495361845116</v>
+        <v>-0.1496973676228358</v>
       </c>
       <c r="C79">
-        <v>0.1060193768626931</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.06362592244007985</v>
+      </c>
+      <c r="D79">
+        <v>0.02761953654281929</v>
+      </c>
+      <c r="E79">
+        <v>0.02828339413652465</v>
+      </c>
+      <c r="F79">
+        <v>0.03368642935409536</v>
+      </c>
+      <c r="G79">
+        <v>0.009237123161051752</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03973262751078561</v>
+        <v>-0.03880674967693114</v>
       </c>
       <c r="C80">
-        <v>0.02159915739408903</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.00884800133429837</v>
+      </c>
+      <c r="D80">
+        <v>0.02730712729544246</v>
+      </c>
+      <c r="E80">
+        <v>-0.0009001587673948856</v>
+      </c>
+      <c r="F80">
+        <v>-0.02313167714240816</v>
+      </c>
+      <c r="G80">
+        <v>0.03319865557048316</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1060681867468006</v>
+        <v>-0.1202976611912611</v>
       </c>
       <c r="C81">
-        <v>0.08387997846444789</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.05068122598486341</v>
+      </c>
+      <c r="D81">
+        <v>0.03278974463180704</v>
+      </c>
+      <c r="E81">
+        <v>0.007937448154687632</v>
+      </c>
+      <c r="F81">
+        <v>0.03366721094817431</v>
+      </c>
+      <c r="G81">
+        <v>0.04903131613241248</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1131750004819986</v>
+        <v>-0.1256119478386008</v>
       </c>
       <c r="C82">
-        <v>0.09645322503146339</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.06024211135373311</v>
+      </c>
+      <c r="D82">
+        <v>0.03725922465905171</v>
+      </c>
+      <c r="E82">
+        <v>0.03107080609586672</v>
+      </c>
+      <c r="F82">
+        <v>0.05289635010218911</v>
+      </c>
+      <c r="G82">
+        <v>0.03362519396198339</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.07352670047872202</v>
+        <v>-0.07464210400929468</v>
       </c>
       <c r="C83">
-        <v>0.02312437129670826</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.002392781342689241</v>
+      </c>
+      <c r="D83">
+        <v>0.04524148698536103</v>
+      </c>
+      <c r="E83">
+        <v>-0.008463805277652737</v>
+      </c>
+      <c r="F83">
+        <v>0.009278806751018128</v>
+      </c>
+      <c r="G83">
+        <v>0.07845672725904346</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.02413722660738954</v>
+        <v>-0.0322888816437036</v>
       </c>
       <c r="C84">
-        <v>0.02052744212245982</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01731256283764477</v>
+      </c>
+      <c r="D84">
+        <v>0.01992873465154853</v>
+      </c>
+      <c r="E84">
+        <v>-0.01694233267699822</v>
+      </c>
+      <c r="F84">
+        <v>-0.04516697508815145</v>
+      </c>
+      <c r="G84">
+        <v>0.05573270474989983</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1142456928681116</v>
+        <v>-0.1187538053534209</v>
       </c>
       <c r="C85">
-        <v>0.08231763405295688</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.04272625453365768</v>
+      </c>
+      <c r="D85">
+        <v>0.03140724994297498</v>
+      </c>
+      <c r="E85">
+        <v>-0.002894950072120213</v>
+      </c>
+      <c r="F85">
+        <v>0.07855181922771536</v>
+      </c>
+      <c r="G85">
+        <v>0.007862992918371853</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.04227376148208</v>
+        <v>-0.04464249578101126</v>
       </c>
       <c r="C86">
-        <v>0.02208185879950229</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.007495202536085993</v>
+      </c>
+      <c r="D86">
+        <v>0.01741555668352842</v>
+      </c>
+      <c r="E86">
+        <v>-0.04318425551232711</v>
+      </c>
+      <c r="F86">
+        <v>0.005728807252445323</v>
+      </c>
+      <c r="G86">
+        <v>0.01443190417959125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.1145746309298137</v>
+        <v>-0.1214564482400895</v>
       </c>
       <c r="C87">
-        <v>0.08861217226490457</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.04626240844553937</v>
+      </c>
+      <c r="D87">
+        <v>0.07028735851408244</v>
+      </c>
+      <c r="E87">
+        <v>-0.02299392951879987</v>
+      </c>
+      <c r="F87">
+        <v>0.03223483201380071</v>
+      </c>
+      <c r="G87">
+        <v>-0.1026550483330382</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.05214167634768371</v>
+        <v>-0.05795027306133347</v>
       </c>
       <c r="C88">
-        <v>0.0424366224009197</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.02505118651568017</v>
+      </c>
+      <c r="D88">
+        <v>0.02543619761923228</v>
+      </c>
+      <c r="E88">
+        <v>-0.01951268103275247</v>
+      </c>
+      <c r="F88">
+        <v>0.01233278085564667</v>
+      </c>
+      <c r="G88">
+        <v>-0.01678323690072583</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.06941573039231486</v>
+        <v>-0.1039767084159594</v>
       </c>
       <c r="C89">
-        <v>0.07523823472724255</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.07723792596090349</v>
+      </c>
+      <c r="D89">
+        <v>-0.3303821005139757</v>
+      </c>
+      <c r="E89">
+        <v>-0.07970061262960744</v>
+      </c>
+      <c r="F89">
+        <v>0.06726309694411767</v>
+      </c>
+      <c r="G89">
+        <v>0.02372641403927896</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.06270201246838976</v>
+        <v>-0.08552616608416648</v>
       </c>
       <c r="C90">
-        <v>0.0675591184949684</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.06564353971866707</v>
+      </c>
+      <c r="D90">
+        <v>-0.3087639632336176</v>
+      </c>
+      <c r="E90">
+        <v>-0.06982266192672973</v>
+      </c>
+      <c r="F90">
+        <v>-0.01595451693199249</v>
+      </c>
+      <c r="G90">
+        <v>0.01669090508280369</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.07424739799347439</v>
+        <v>-0.08601173412726634</v>
       </c>
       <c r="C91">
-        <v>0.06728862397912794</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.04318433247227431</v>
+      </c>
+      <c r="D91">
+        <v>0.03025131768817309</v>
+      </c>
+      <c r="E91">
+        <v>-0.005323606530370705</v>
+      </c>
+      <c r="F91">
+        <v>0.009209131810599401</v>
+      </c>
+      <c r="G91">
+        <v>0.02454331297452252</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.07753659832480821</v>
+        <v>-0.1019998389611315</v>
       </c>
       <c r="C92">
-        <v>0.06981979254641146</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.06566043968931594</v>
+      </c>
+      <c r="D92">
+        <v>-0.3320073252655653</v>
+      </c>
+      <c r="E92">
+        <v>-0.04376956710743141</v>
+      </c>
+      <c r="F92">
+        <v>0.02953529068825006</v>
+      </c>
+      <c r="G92">
+        <v>0.003888246718042882</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.05558663779757183</v>
+        <v>-0.08303096920064663</v>
       </c>
       <c r="C93">
-        <v>0.06360824703585331</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.06652811390840782</v>
+      </c>
+      <c r="D93">
+        <v>-0.3010397598947941</v>
+      </c>
+      <c r="E93">
+        <v>-0.03777978436048167</v>
+      </c>
+      <c r="F93">
+        <v>0.03747582590115606</v>
+      </c>
+      <c r="G93">
+        <v>-0.003715882276248749</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1218256345719573</v>
+        <v>-0.126208935273873</v>
       </c>
       <c r="C94">
-        <v>0.08094854217309411</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.03620040593575975</v>
+      </c>
+      <c r="D94">
+        <v>0.05686129901411869</v>
+      </c>
+      <c r="E94">
+        <v>0.03121335095366545</v>
+      </c>
+      <c r="F94">
+        <v>0.0382348407538901</v>
+      </c>
+      <c r="G94">
+        <v>0.02638133864962346</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1126178252285744</v>
+        <v>-0.1195424489984738</v>
       </c>
       <c r="C95">
-        <v>0.0601235028557822</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.02335646889517071</v>
+      </c>
+      <c r="D95">
+        <v>0.0518072497169262</v>
+      </c>
+      <c r="E95">
+        <v>0.008914531399302745</v>
+      </c>
+      <c r="F95">
+        <v>0.0325864990073873</v>
+      </c>
+      <c r="G95">
+        <v>0.0071487400964298</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2896,91 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1944919130692713</v>
+        <v>-0.2235417384541184</v>
       </c>
       <c r="C97">
-        <v>0.08369018993621627</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.03721553473618844</v>
+      </c>
+      <c r="D97">
+        <v>-0.01920282336955016</v>
+      </c>
+      <c r="E97">
+        <v>0.1229906558352166</v>
+      </c>
+      <c r="F97">
+        <v>-0.8905903031406928</v>
+      </c>
+      <c r="G97">
+        <v>-0.209767327511556</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2313316346819857</v>
+        <v>-0.2630737863705203</v>
       </c>
       <c r="C98">
-        <v>0.1300120251150111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.06321668319471647</v>
+      </c>
+      <c r="D98">
+        <v>0.04561500772980302</v>
+      </c>
+      <c r="E98">
+        <v>0.1540136210482248</v>
+      </c>
+      <c r="F98">
+        <v>0.01932874356331863</v>
+      </c>
+      <c r="G98">
+        <v>0.2895548958680507</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.5846231995356487</v>
+        <v>-0.3609263669231421</v>
       </c>
       <c r="C99">
-        <v>-0.8015470813879264</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9212179621303449</v>
+      </c>
+      <c r="D99">
+        <v>-0.07684218862421749</v>
+      </c>
+      <c r="E99">
+        <v>-0.04280154628870485</v>
+      </c>
+      <c r="F99">
+        <v>0.04132960996682841</v>
+      </c>
+      <c r="G99">
+        <v>0.01178672778101435</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2988,45 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.03483110367326932</v>
+        <v>-0.04339554238979078</v>
       </c>
       <c r="C101">
-        <v>0.03222779005440612</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02432915870381273</v>
+      </c>
+      <c r="D101">
+        <v>0.01083484112015676</v>
+      </c>
+      <c r="E101">
+        <v>-0.03422776872367007</v>
+      </c>
+      <c r="F101">
+        <v>0.01251218140206083</v>
+      </c>
+      <c r="G101">
+        <v>0.01507496338907183</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
